--- a/tut05/output/0401EE23.xlsx
+++ b/tut05/output/0401EE23.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,13 +34,21 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0077C3FD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -985,37 +994,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Sl. No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Subject No</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Subject Name</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>L-T-P</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Credit</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Subject Type</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Grade</t>
         </is>
